--- a/CashFlow/TXG_cashflow.xlsx
+++ b/CashFlow/TXG_cashflow.xlsx
@@ -238,19 +238,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-14601000.0</v>
+        <v>96000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-11812000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-9432000.0</v>
+        <v>55020000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-8200000.0</v>
+        <v>31851000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-6699000.0</v>
+        <v>10265000.0</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -302,19 +302,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-7770000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-1092000.0</v>
+        <v>46000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>7706000.0</v>
+        <v>45301000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>18996000.0</v>
+        <v>44434000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>30104000.0</v>
+        <v>40889000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
